--- a/Data/ParentWorkSchedule.xlsx
+++ b/Data/ParentWorkSchedule.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Wp6USRga9B6b4B1doIArCXLPKsc8IpNCaBJshWVro6Y="/>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +47,7 @@
     <t>Coba-Rodriguez, S. &amp; Lleras, C.L. (2022). Nonstandard work and preschool child development in single mother families: Exploring the role of maternal depression and parenting stress, Marriage &amp; Family Review, DOI: 10.1080/01494929.2022.2042883</t>
   </si>
   <si>
-    <t>07/08/2022-07/15/2022</t>
+    <t>07/08/2022-07/15/2022 05/03/2023-05/10/2023</t>
   </si>
   <si>
     <t>Approximately how many hours of non-parental care do you use in a week?</t>
